--- a/antwerp_data.xlsx
+++ b/antwerp_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Desktop/BassConnections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8494032F-D24D-5546-87D3-AD2EE1BDD2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B52E166-76DB-564E-ADB2-A33BB1560FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="4720" windowWidth="38400" windowHeight="21600" xr2:uid="{B80E2F36-86E3-0841-AE72-A4376931F2C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="antwerp all" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -14989,7 +14989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6410068-F393-5C43-A643-2EE5EBFE70D5}">
   <dimension ref="A1:D2547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
